--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/46.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/46.xlsx
@@ -479,13 +479,13 @@
         <v>-8.17942170842084</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.55830117243241</v>
+        <v>-17.81465135849223</v>
       </c>
       <c r="F2" t="n">
-        <v>2.472791092485509</v>
+        <v>2.270977778026126</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.117963718452245</v>
+        <v>-8.967142745614787</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.136145678505036</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.01188856252418</v>
+        <v>-18.27478023977193</v>
       </c>
       <c r="F3" t="n">
-        <v>2.373221578633919</v>
+        <v>2.193403906068787</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.070359458589094</v>
+        <v>-8.94891163900806</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.096191859991488</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.43600501922218</v>
+        <v>-18.70184476761068</v>
       </c>
       <c r="F4" t="n">
-        <v>2.532246304994061</v>
+        <v>2.35992347995591</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.095063610287616</v>
+        <v>-9.013378083555201</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.216805137891144</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.9719966200558</v>
+        <v>-19.21112772393035</v>
       </c>
       <c r="F5" t="n">
-        <v>2.925425126238228</v>
+        <v>2.75867576902836</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.873508486099631</v>
+        <v>-8.807580228499283</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.481713861222368</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.48716594064323</v>
+        <v>-19.70092309887849</v>
       </c>
       <c r="F6" t="n">
-        <v>3.049850351001214</v>
+        <v>2.888337120145811</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.603151295366102</v>
+        <v>-8.568488236679674</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.921886010686843</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.13695895431803</v>
+        <v>-20.34965519806316</v>
       </c>
       <c r="F7" t="n">
-        <v>3.184640270322059</v>
+        <v>3.03159968836702</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.342053883638508</v>
+        <v>-8.289149940331622</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.528724028449739</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.71182793775736</v>
+        <v>-20.91161720337384</v>
       </c>
       <c r="F8" t="n">
-        <v>3.387030487591737</v>
+        <v>3.245009727114724</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.186021229480918</v>
+        <v>-8.15763565561161</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.298100959879972</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.14631886702696</v>
+        <v>-21.32695300373886</v>
       </c>
       <c r="F9" t="n">
-        <v>3.671135565635031</v>
+        <v>3.559861769344047</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.478677180534447</v>
+        <v>-8.479058523070066</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.209232431603674</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.79577453922794</v>
+        <v>-21.95629530168936</v>
       </c>
       <c r="F10" t="n">
-        <v>4.01871950883835</v>
+        <v>3.9022242532135</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.123862396174962</v>
+        <v>-8.133415515592914</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.234171257822582</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.69515624246561</v>
+        <v>-22.8734729899226</v>
       </c>
       <c r="F11" t="n">
-        <v>4.168376898041483</v>
+        <v>4.030071782783327</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.825652533320617</v>
+        <v>-7.861166279201887</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.345211117861303</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.53128886386601</v>
+        <v>-23.71490529476673</v>
       </c>
       <c r="F12" t="n">
-        <v>4.627884875449086</v>
+        <v>4.496610152065552</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.381696486756671</v>
+        <v>-7.437832063602589</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.502203562682338</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.10033504012684</v>
+        <v>-24.2905222962567</v>
       </c>
       <c r="F13" t="n">
-        <v>5.435289692499488</v>
+        <v>5.307393272860993</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.097679410836982</v>
+        <v>-7.177091549376281</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.678701654993433</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.26291153903801</v>
+        <v>-25.44700220360482</v>
       </c>
       <c r="F14" t="n">
-        <v>5.697047120154115</v>
+        <v>5.576049089204837</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.431826009604367</v>
+        <v>-6.506891821038979</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.839570700402507</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.70134789684921</v>
+        <v>-25.88067177972078</v>
       </c>
       <c r="F15" t="n">
-        <v>6.043672818011517</v>
+        <v>5.95497156642508</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.01535107063935</v>
+        <v>-6.103788315854975</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.969579723272628</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.70235249682258</v>
+        <v>-26.88669250073961</v>
       </c>
       <c r="F16" t="n">
-        <v>6.340054192297635</v>
+        <v>6.251753839274285</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.735572763673275</v>
+        <v>-5.838437468153166</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.055075653531784</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.72646743225585</v>
+        <v>-27.92635447800967</v>
       </c>
       <c r="F17" t="n">
-        <v>6.717558857526473</v>
+        <v>6.655336467131247</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.418134436811354</v>
+        <v>-5.555696423025741</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.10098120095362</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.26312638252681</v>
+        <v>-28.4468577050889</v>
       </c>
       <c r="F18" t="n">
-        <v>7.097371133996495</v>
+        <v>7.01424335023834</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.239426568805013</v>
+        <v>-5.405095455497293</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.11623577887002</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.25064465705779</v>
+        <v>-29.44430310806316</v>
       </c>
       <c r="F19" t="n">
-        <v>7.246510288471735</v>
+        <v>7.156640564244104</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.984288856448189</v>
+        <v>-5.125933163396449</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.118180788962262</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.82347492463361</v>
+        <v>-30.04204775463278</v>
       </c>
       <c r="F20" t="n">
-        <v>7.447155130289925</v>
+        <v>7.360961939226214</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.884704675575999</v>
+        <v>-5.021200858293397</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.125033532676127</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.58239546058482</v>
+        <v>-30.77441853879321</v>
       </c>
       <c r="F21" t="n">
-        <v>7.744074295331403</v>
+        <v>7.657152642244522</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.793695812748377</v>
+        <v>-4.932172043246876</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.152771515867396</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.81877894260016</v>
+        <v>-31.02432012479556</v>
       </c>
       <c r="F22" t="n">
-        <v>7.685611551216835</v>
+        <v>7.59259330656691</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.924149182978268</v>
+        <v>-5.039519967023727</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.217134291450028</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.27716733743524</v>
+        <v>-31.46107955325141</v>
       </c>
       <c r="F23" t="n">
-        <v>7.788354030525052</v>
+        <v>7.704678677997802</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.576027449019589</v>
+        <v>-4.670483061688386</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.32155707627494</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.36107491778866</v>
+        <v>-31.54624605287307</v>
       </c>
       <c r="F24" t="n">
-        <v>8.068318119752069</v>
+        <v>7.971232221388872</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.757751834262818</v>
+        <v>-4.854559059234601</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.470460998193177</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.51294458259908</v>
+        <v>-31.70791328744478</v>
       </c>
       <c r="F25" t="n">
-        <v>8.007132198812629</v>
+        <v>7.917086470337789</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.630735435860368</v>
+        <v>-4.723567898249349</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.652180714685366</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.42764852429545</v>
+        <v>-31.57497141271963</v>
       </c>
       <c r="F26" t="n">
-        <v>7.651623175478042</v>
+        <v>7.549198481616173</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.652672409672215</v>
+        <v>-4.734059706985748</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.85950715524252</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.61420813733005</v>
+        <v>-31.76877408942757</v>
       </c>
       <c r="F27" t="n">
-        <v>7.695805130534352</v>
+        <v>7.586149595516317</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.309253900319509</v>
+        <v>-4.344141853321814</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.071869600495995</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.28252079995451</v>
+        <v>-31.42654605324696</v>
       </c>
       <c r="F28" t="n">
-        <v>7.649051557866044</v>
+        <v>7.531793617169956</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.497842451203885</v>
+        <v>-4.509013831894786</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.272300913478879</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.09178597505555</v>
+        <v>-31.22258890927643</v>
       </c>
       <c r="F29" t="n">
-        <v>7.307798878555381</v>
+        <v>7.178465090898013</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.238837534415333</v>
+        <v>-4.217741469784595</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.438103546815425</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.26046648997785</v>
+        <v>-31.3742287907641</v>
       </c>
       <c r="F30" t="n">
-        <v>7.035945651720575</v>
+        <v>6.937828172908459</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.389047381394427</v>
+        <v>-4.348835299914052</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.548699276892316</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.88389318055717</v>
+        <v>-30.95803741419736</v>
       </c>
       <c r="F31" t="n">
-        <v>6.990433886796464</v>
+        <v>6.877048039538972</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.308779666653417</v>
+        <v>-4.266215972870056</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.585959746983379</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.84738207727504</v>
+        <v>-30.93952274519236</v>
       </c>
       <c r="F32" t="n">
-        <v>6.782191528307089</v>
+        <v>6.650154119852317</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.404765538471559</v>
+        <v>-4.329088601178582</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.534460328751461</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.34425438060083</v>
+        <v>-30.4112288856707</v>
       </c>
       <c r="F33" t="n">
-        <v>6.790737512310456</v>
+        <v>6.669069687420411</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.112534931015452</v>
+        <v>-3.993741842163152</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.391061511775821</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.98619085117828</v>
+        <v>-30.05366403494857</v>
       </c>
       <c r="F34" t="n">
-        <v>6.735609070879123</v>
+        <v>6.582314260567005</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.107929486546817</v>
+        <v>-3.95799342395227</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.155517425073647</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.5448919798465</v>
+        <v>-29.56592937639483</v>
       </c>
       <c r="F35" t="n">
-        <v>6.789930826177415</v>
+        <v>6.660748597732922</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.167487368199575</v>
+        <v>-4.02165318236637</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.843482295038199</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.21484734877824</v>
+        <v>-29.25394473669296</v>
       </c>
       <c r="F36" t="n">
-        <v>6.759560315520139</v>
+        <v>6.611565188651757</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.326521872573452</v>
+        <v>-4.144264585581729</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.469392912070169</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.07295370247977</v>
+        <v>-29.0630339075468</v>
       </c>
       <c r="F37" t="n">
-        <v>6.916913001531797</v>
+        <v>6.767368059486603</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.219022389583726</v>
+        <v>-4.014040998674583</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.058947071644104</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.36805424790454</v>
+        <v>-28.35926870256469</v>
       </c>
       <c r="F38" t="n">
-        <v>6.621802769031077</v>
+        <v>6.452496461229813</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.205098498026752</v>
+        <v>-3.966803414326451</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.63483871659282</v>
       </c>
       <c r="E39" t="n">
-        <v>-27.83437514731897</v>
+        <v>-27.80726071523506</v>
       </c>
       <c r="F39" t="n">
-        <v>6.575181199548176</v>
+        <v>6.407942941651616</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.240773581134631</v>
+        <v>-3.996704580324502</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.225075033602828</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.46593714532482</v>
+        <v>-27.43230322258388</v>
       </c>
       <c r="F40" t="n">
-        <v>6.66301709691917</v>
+        <v>6.494473474189144</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.085591614171883</v>
+        <v>-3.812516135620349</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.853560381796018</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.23445489269357</v>
+        <v>-27.20481039955603</v>
       </c>
       <c r="F41" t="n">
-        <v>6.496756640395994</v>
+        <v>6.347725044071825</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.468210180583514</v>
+        <v>-4.166666015045934</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.541252826064593</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.6029149861564</v>
+        <v>-26.58092423326901</v>
       </c>
       <c r="F42" t="n">
-        <v>6.392151449471482</v>
+        <v>6.234045856402319</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.2579046611963</v>
+        <v>-3.96929191882171</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.305375228443435</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.1889334406935</v>
+        <v>-26.13721263704841</v>
       </c>
       <c r="F43" t="n">
-        <v>6.33293090929254</v>
+        <v>6.142372088640796</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.257655321846088</v>
+        <v>-3.943766413969548</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.152339464380391</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.47833095960802</v>
+        <v>-25.41781972161621</v>
       </c>
       <c r="F44" t="n">
-        <v>6.45940951693963</v>
+        <v>6.265281721275038</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.383097460037392</v>
+        <v>-4.071071263777146</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.086182668039601</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.9647114541974</v>
+        <v>-24.92243132281232</v>
       </c>
       <c r="F45" t="n">
-        <v>6.496693083306724</v>
+        <v>6.28003185499252</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.500839412413304</v>
+        <v>-4.182701957569415</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.095813795719598</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.49285873445084</v>
+        <v>-24.4225548157046</v>
       </c>
       <c r="F46" t="n">
-        <v>6.37703464023898</v>
+        <v>6.185659355440461</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.48387455858511</v>
+        <v>-4.18708250772217</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.173457288123861</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.42342016992005</v>
+        <v>-24.37546879056934</v>
       </c>
       <c r="F47" t="n">
-        <v>6.558749247468475</v>
+        <v>6.367417963731758</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.573323828222185</v>
+        <v>-4.288456065107652</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.298257143799074</v>
       </c>
       <c r="E48" t="n">
-        <v>-23.90588457000903</v>
+        <v>-23.86040702813299</v>
       </c>
       <c r="F48" t="n">
-        <v>6.524799983784617</v>
+        <v>6.328364576878842</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.6274353562252</v>
+        <v>-4.364128113393762</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.458771922304431</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.15732383960881</v>
+        <v>-23.11180229667097</v>
       </c>
       <c r="F49" t="n">
-        <v>6.688620825881204</v>
+        <v>6.483590544903391</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.800985321986947</v>
+        <v>-4.546590738673895</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.637771234952951</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.99921335753278</v>
+        <v>-22.96511742364292</v>
       </c>
       <c r="F50" t="n">
-        <v>6.519920754931436</v>
+        <v>6.327553001738934</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.906294529900295</v>
+        <v>-4.690259094465057</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.830300957946533</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.47881768860463</v>
+        <v>-22.48029416867843</v>
       </c>
       <c r="F51" t="n">
-        <v>6.608103771789981</v>
+        <v>6.4246877901708</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.709800454912116</v>
+        <v>-4.478374425859831</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.028507493807817</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.91123821440387</v>
+        <v>-21.89123239830445</v>
       </c>
       <c r="F52" t="n">
-        <v>6.523411505834414</v>
+        <v>6.333449144020434</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.887750526854086</v>
+        <v>-4.66209352590476</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.232033325839219</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.4747770153669</v>
+        <v>-21.46657326184422</v>
       </c>
       <c r="F53" t="n">
-        <v>6.881052136162976</v>
+        <v>6.695739219879432</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.914385836265039</v>
+        <v>-4.690738217138015</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.439763453113896</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.83513357994782</v>
+        <v>-20.84190974346536</v>
       </c>
       <c r="F54" t="n">
-        <v>6.934611206390029</v>
+        <v>6.783990682834114</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.932524051741294</v>
+        <v>-4.700574898954248</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.651942478507268</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.5557757275723</v>
+        <v>-20.5498502512496</v>
       </c>
       <c r="F55" t="n">
-        <v>6.859354723687607</v>
+        <v>6.699459754105154</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.260400408264077</v>
+        <v>-5.093519047868803</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.868697014181566</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.00456953736884</v>
+        <v>-20.00631491282033</v>
       </c>
       <c r="F56" t="n">
-        <v>6.727806215919527</v>
+        <v>6.570321526722463</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.337856944056611</v>
+        <v>-5.14919505806923</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.086664330319637</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.73626084051255</v>
+        <v>-19.76349260876126</v>
       </c>
       <c r="F57" t="n">
-        <v>6.758430954933882</v>
+        <v>6.601816508959129</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.549291824030082</v>
+        <v>-5.383926055763551</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.306192203729966</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.35704013387342</v>
+        <v>-19.38503458719338</v>
       </c>
       <c r="F58" t="n">
-        <v>6.423592652632611</v>
+        <v>6.264758597540278</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.894881052431699</v>
+        <v>-5.745834789086929</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.51875527364319</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.77339049410111</v>
+        <v>-18.81361724260209</v>
       </c>
       <c r="F59" t="n">
-        <v>6.604544574790867</v>
+        <v>6.441681978040196</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.744925433809684</v>
+        <v>-5.567606043753545</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.721131049268252</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.18918350754598</v>
+        <v>-18.21506590989943</v>
       </c>
       <c r="F60" t="n">
-        <v>6.436641411960407</v>
+        <v>6.252399188180718</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.070953745736774</v>
+        <v>-5.923960865276109</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.899575160436139</v>
       </c>
       <c r="E61" t="n">
-        <v>-17.93663696882862</v>
+        <v>-17.95996242059067</v>
       </c>
       <c r="F61" t="n">
-        <v>6.141452955349816</v>
+        <v>5.969345246613809</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.109381339710725</v>
+        <v>-5.944763589494833</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.048978345235135</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.65028294762655</v>
+        <v>-17.69208395633867</v>
       </c>
       <c r="F62" t="n">
-        <v>6.214172043488309</v>
+        <v>6.025246151130115</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.174835363644982</v>
+        <v>-6.014436826355237</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.159834956087759</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.11447712905387</v>
+        <v>-17.15837063270503</v>
       </c>
       <c r="F63" t="n">
-        <v>6.061111905505803</v>
+        <v>5.880927557425653</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.047178505342966</v>
+        <v>-5.911537898827278</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.231291423235216</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.15141357593341</v>
+        <v>-17.21478977194923</v>
       </c>
       <c r="F64" t="n">
-        <v>5.922283666512886</v>
+        <v>5.743008673709982</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.294097797156506</v>
+        <v>-6.134378831821262</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.263828707713677</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.78188288090452</v>
+        <v>-16.84074652358217</v>
       </c>
       <c r="F65" t="n">
-        <v>5.986510549723548</v>
+        <v>5.804761719445985</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.191805106480045</v>
+        <v>-6.026722900611794</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.262765744210046</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.72533173847491</v>
+        <v>-16.80737416270861</v>
       </c>
       <c r="F66" t="n">
-        <v>5.997447258084836</v>
+        <v>5.817644252540306</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.289731914024351</v>
+        <v>-6.143677722882134</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.239068373265749</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.55245156665393</v>
+        <v>-16.62655913274262</v>
       </c>
       <c r="F67" t="n">
-        <v>5.736696965844795</v>
+        <v>5.547458177047118</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.239893378023019</v>
+        <v>-6.096039239970914</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.200583584524751</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.33822017475258</v>
+        <v>-16.43927594669172</v>
       </c>
       <c r="F68" t="n">
-        <v>5.611641059195978</v>
+        <v>5.419390642168281</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.343246983189601</v>
+        <v>-6.181763086375401</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.161192758594913</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.29552936679068</v>
+        <v>-16.40921344346706</v>
       </c>
       <c r="F69" t="n">
-        <v>5.746870989134845</v>
+        <v>5.565347053173159</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.974606087410481</v>
+        <v>-5.831103957852793</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.123890960296901</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.0851456232936</v>
+        <v>-16.21336471738531</v>
       </c>
       <c r="F70" t="n">
-        <v>5.70667357467507</v>
+        <v>5.514491603743511</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.8699666734379</v>
+        <v>-5.732605136505058</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.099055552381906</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.14281634829572</v>
+        <v>-16.25931649292744</v>
       </c>
       <c r="F71" t="n">
-        <v>5.493903995826932</v>
+        <v>5.302553156062747</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.615752983378924</v>
+        <v>-5.478958571242644</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.083653495704064</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.10203225301192</v>
+        <v>-16.23131226159375</v>
       </c>
       <c r="F72" t="n">
-        <v>5.479554760672536</v>
+        <v>5.282532672942731</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.615180969575495</v>
+        <v>-5.468672100794654</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.07988616523972</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.05476533462259</v>
+        <v>-16.19270866337259</v>
       </c>
       <c r="F73" t="n">
-        <v>5.522602466135722</v>
+        <v>5.332146314628184</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.627789718285269</v>
+        <v>-5.476807408221201</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.079561973971089</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.21397584324367</v>
+        <v>-16.37116230302185</v>
       </c>
       <c r="F74" t="n">
-        <v>5.438355099805044</v>
+        <v>5.268823897687901</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.261554213884669</v>
+        <v>-5.104905544861848</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.076289347663184</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.47947825015835</v>
+        <v>-16.63090057084045</v>
       </c>
       <c r="F75" t="n">
-        <v>5.316579716763926</v>
+        <v>5.169445055104121</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.27673458020644</v>
+        <v>-5.125414928668556</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.061095836943896</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.55310180456723</v>
+        <v>-16.71371056915225</v>
       </c>
       <c r="F76" t="n">
-        <v>5.223351244818725</v>
+        <v>5.062194911464608</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.077742222709269</v>
+        <v>-4.900848176250552</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.02497395210203</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.71582750912562</v>
+        <v>-16.87756074529004</v>
       </c>
       <c r="F77" t="n">
-        <v>5.235627541061548</v>
+        <v>5.078186852926287</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.790117059721795</v>
+        <v>-4.618952929311103</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.964900430688021</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.10985701756464</v>
+        <v>-17.29204585846022</v>
       </c>
       <c r="F78" t="n">
-        <v>5.054734286985695</v>
+        <v>4.887227133711455</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.277812697158378</v>
+        <v>-4.054169967038221</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.875083473310059</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.26077088153257</v>
+        <v>-17.47070972540476</v>
       </c>
       <c r="F79" t="n">
-        <v>5.186537023110856</v>
+        <v>5.022838406185943</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.05751404773519</v>
+        <v>-3.829681438730087</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.760763924368836</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.65971384187283</v>
+        <v>-17.85970844577772</v>
       </c>
       <c r="F80" t="n">
-        <v>4.99325502563424</v>
+        <v>4.818644145382373</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.661920057098768</v>
+        <v>-3.44108361692022</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.621205255253981</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.5380239255141</v>
+        <v>-18.74155817039063</v>
       </c>
       <c r="F81" t="n">
-        <v>4.950970005242293</v>
+        <v>4.773679949227356</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.389778378858814</v>
+        <v>-3.135535354758636</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.46895990149927</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.27333055829811</v>
+        <v>-19.47816527900124</v>
       </c>
       <c r="F82" t="n">
-        <v>4.811809313782426</v>
+        <v>4.65730691877418</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.244711767103714</v>
+        <v>-2.980133382486878</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.309524892253616</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.90126971127779</v>
+        <v>-20.07825664886698</v>
       </c>
       <c r="F83" t="n">
-        <v>4.574692480737051</v>
+        <v>4.420190085728804</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.107140002875594</v>
+        <v>-2.818092138889849</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.158219557216709</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.09589853920846</v>
+        <v>-21.30410667464977</v>
       </c>
       <c r="F84" t="n">
-        <v>4.359458842427987</v>
+        <v>4.190294315825863</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.648702717971846</v>
+        <v>-2.342924672487518</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.022791043679138</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.94972447646022</v>
+        <v>-22.1305688404674</v>
       </c>
       <c r="F85" t="n">
-        <v>4.466293420483813</v>
+        <v>4.285273052229419</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.665315563305623</v>
+        <v>-2.365189209759448</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.913360227599213</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.83337335560016</v>
+        <v>-23.0277456016081</v>
       </c>
       <c r="F86" t="n">
-        <v>4.141673142534394</v>
+        <v>3.962026585209604</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.441482161917656</v>
+        <v>-2.096200940948655</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.834379747674201</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.58855380129818</v>
+        <v>-23.77830104681002</v>
       </c>
       <c r="F87" t="n">
-        <v>3.990294822914106</v>
+        <v>3.821408969703396</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.405650630590036</v>
+        <v>-2.057123109061404</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.787422119944793</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.84920377795967</v>
+        <v>-25.03722520404748</v>
       </c>
       <c r="F88" t="n">
-        <v>4.111811088591277</v>
+        <v>3.954927747238843</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.334217351257542</v>
+        <v>-1.934399258688105</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.774635032887913</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.19977236891745</v>
+        <v>-26.38938761124388</v>
       </c>
       <c r="F89" t="n">
-        <v>3.620524566548728</v>
+        <v>3.465572382908725</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.280218270412467</v>
+        <v>-1.849438097354857</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.791995573420965</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.51584901642916</v>
+        <v>-27.67367104710004</v>
       </c>
       <c r="F90" t="n">
-        <v>3.709162261045896</v>
+        <v>3.537509229948512</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.334857811157108</v>
+        <v>-1.887337678587181</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.842023057883124</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.22484047881421</v>
+        <v>-29.38920400067303</v>
       </c>
       <c r="F91" t="n">
-        <v>3.310854871598335</v>
+        <v>3.153570631682814</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.575274723837651</v>
+        <v>-2.111293305146821</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.917498186182618</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.8984428649931</v>
+        <v>-31.03446725854785</v>
       </c>
       <c r="F92" t="n">
-        <v>3.027453810543876</v>
+        <v>2.859247529287667</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.771099004885062</v>
+        <v>-2.303656169332457</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.022760541676933</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.49789123951806</v>
+        <v>-32.61998440800553</v>
       </c>
       <c r="F93" t="n">
-        <v>2.755590805695337</v>
+        <v>2.593104662473418</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.180924894511074</v>
+        <v>-2.69557362680496</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.150465234283046</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.47855259098041</v>
+        <v>-34.59246156197266</v>
       </c>
       <c r="F94" t="n">
-        <v>2.199031152972606</v>
+        <v>2.034579628990188</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.073503635631219</v>
+        <v>-2.551030138784619</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.303947972819596</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.70193113285419</v>
+        <v>-36.82409763644466</v>
       </c>
       <c r="F95" t="n">
-        <v>1.787978122622998</v>
+        <v>1.647037832663574</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.222271225584574</v>
+        <v>-2.67351442782144</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.481464181502392</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.51381174475348</v>
+        <v>-38.61493351828531</v>
       </c>
       <c r="F96" t="n">
-        <v>1.570045752523397</v>
+        <v>1.421273273563175</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.505354501192683</v>
+        <v>-2.949117522923169</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.681355588636891</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.58491727875032</v>
+        <v>-40.68805332311132</v>
       </c>
       <c r="F97" t="n">
-        <v>1.105594989173344</v>
+        <v>0.9395936500141138</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.840271027603825</v>
+        <v>-3.262180188639201</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.9134434028655</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.34162300365303</v>
+        <v>-42.38329200917975</v>
       </c>
       <c r="F98" t="n">
-        <v>0.691774780937062</v>
+        <v>0.5453294692454916</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.142088977525953</v>
+        <v>-3.540848691046486</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.165679765315817</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.84666212013664</v>
+        <v>-44.88760999715049</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4828626285069194</v>
+        <v>0.336016418252262</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.333122031843788</v>
+        <v>-3.712110601594516</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.46677902910922</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.44058338146078</v>
+        <v>-47.47066788521634</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.334867771046408</v>
+        <v>-0.4722341969861172</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.672624446696095</v>
+        <v>-4.10672190185069</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.779157981044998</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.23259873620806</v>
+        <v>-49.24465624939359</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3837871737567589</v>
+        <v>-0.5107497930836732</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.056807495305138</v>
+        <v>-4.487331086440018</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.177491658948511</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.46501827403048</v>
+        <v>-51.44646082621539</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7914081212857927</v>
+        <v>-0.8862352984764751</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.321058316461891</v>
+        <v>-4.758666078546931</v>
       </c>
     </row>
   </sheetData>
